--- a/FlickerFaces.data/FF4_4/FF4_4_MarkupXLS_2000.xlsx
+++ b/FlickerFaces.data/FF4_4/FF4_4_MarkupXLS_2000.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="16">
   <si>
     <t>Tr</t>
   </si>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -91,14 +91,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,28 +130,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -157,7 +165,7 @@
       <c r="C2">
         <v>7139</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2">
@@ -183,7 +191,7 @@
       <c r="C3">
         <v>10473</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3">
@@ -209,7 +217,7 @@
       <c r="C4">
         <v>21072</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4">
@@ -235,7 +243,7 @@
       <c r="C5">
         <v>24405</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5">
@@ -261,7 +269,7 @@
       <c r="C6">
         <v>33672</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6">
@@ -287,7 +295,7 @@
       <c r="C7">
         <v>37004</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7">
@@ -313,7 +321,7 @@
       <c r="C8">
         <v>47571</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -339,7 +347,7 @@
       <c r="C9">
         <v>50904</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9">
@@ -365,7 +373,7 @@
       <c r="C10">
         <v>57971</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E10">
@@ -391,7 +399,7 @@
       <c r="C11">
         <v>61305</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11">
@@ -417,7 +425,7 @@
       <c r="C12">
         <v>69571</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E12">
@@ -443,7 +451,7 @@
       <c r="C13">
         <v>72904</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E13">
@@ -469,7 +477,7 @@
       <c r="C14">
         <v>80720</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E14">
@@ -495,7 +503,7 @@
       <c r="C15">
         <v>84054</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E15">
@@ -521,7 +529,7 @@
       <c r="C16">
         <v>92837</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E16">
@@ -547,7 +555,7 @@
       <c r="C17">
         <v>96170</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E17">
@@ -567,14 +575,20 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>108504</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -587,14 +601,20 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>111836</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -608,12 +628,12 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>118836</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E20">
@@ -634,12 +654,12 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>122170</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E21">
@@ -660,12 +680,12 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>133519</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E22">
@@ -686,12 +706,12 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>136852</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E23">
@@ -712,12 +732,12 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>145202</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E24">
@@ -738,12 +758,12 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>148535</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25">
@@ -764,12 +784,12 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>161201</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E26">
@@ -790,12 +810,12 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>164535</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E27">
@@ -816,12 +836,12 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>175151</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28">
@@ -842,12 +862,12 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>178485</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E29">
@@ -868,12 +888,12 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>189651</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E30">
@@ -894,12 +914,12 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>192984</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E31">
@@ -920,12 +940,12 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>204516</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E32">
@@ -946,12 +966,12 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>207850</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E33">
@@ -972,12 +992,12 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>215916</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E34">
@@ -998,12 +1018,12 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>219250</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E35">
@@ -1024,12 +1044,12 @@
         <v>18</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>227200</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E36">
@@ -1050,12 +1070,12 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>230532</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E37">
@@ -1076,12 +1096,12 @@
         <v>19</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>239083</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E38">
@@ -1102,12 +1122,12 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>242416</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E39">
@@ -1128,12 +1148,12 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>255116</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E40">
@@ -1154,12 +1174,12 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>258449</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E41">
@@ -1180,12 +1200,12 @@
         <v>21</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>331413</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E42">
@@ -1206,12 +1226,12 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>334747</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E43">
@@ -1232,12 +1252,12 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>345280</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E44">
@@ -1258,12 +1278,12 @@
         <v>22</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>348612</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E45">
@@ -1284,12 +1304,12 @@
         <v>23</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>359929</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E46">
@@ -1310,12 +1330,12 @@
         <v>23</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>363263</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47">
@@ -1336,12 +1356,12 @@
         <v>24</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>374696</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E48">
@@ -1362,12 +1382,12 @@
         <v>24</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>378029</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E49">
@@ -1388,12 +1408,12 @@
         <v>25</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>388078</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E50">
@@ -1414,12 +1434,12 @@
         <v>25</v>
       </c>
       <c r="B51">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>391412</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E51">
@@ -1440,12 +1460,12 @@
         <v>26</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>402912</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E52">
@@ -1466,12 +1486,12 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>406244</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E53">
@@ -1492,12 +1512,12 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>419095</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E54">
@@ -1518,12 +1538,12 @@
         <v>27</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>422428</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E55">
@@ -1544,12 +1564,12 @@
         <v>28</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>432810</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E56">
@@ -1570,12 +1590,12 @@
         <v>28</v>
       </c>
       <c r="B57">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>436144</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E57">
@@ -1596,12 +1616,12 @@
         <v>29</v>
       </c>
       <c r="B58">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>447961</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E58">
@@ -1622,12 +1642,12 @@
         <v>29</v>
       </c>
       <c r="B59">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>451293</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E59">
@@ -1648,12 +1668,12 @@
         <v>30</v>
       </c>
       <c r="B60">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>460876</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E60">
@@ -1674,12 +1694,12 @@
         <v>30</v>
       </c>
       <c r="B61">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>464210</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E61">
@@ -1700,12 +1720,12 @@
         <v>31</v>
       </c>
       <c r="B62">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>478243</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E62">
@@ -1726,12 +1746,12 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>481576</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E63">
@@ -1752,12 +1772,12 @@
         <v>32</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>492009</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E64">
@@ -1778,12 +1798,12 @@
         <v>32</v>
       </c>
       <c r="B65">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>495343</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E65">
@@ -1804,12 +1824,12 @@
         <v>33</v>
       </c>
       <c r="B66">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>504592</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E66">
@@ -1830,12 +1850,12 @@
         <v>33</v>
       </c>
       <c r="B67">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C67">
         <v>507925</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E67">
@@ -1855,14 +1875,20 @@
       <c r="A68">
         <v>34</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>523225</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -1875,14 +1901,20 @@
       <c r="A69">
         <v>34</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>526558</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1895,14 +1927,20 @@
       <c r="A70">
         <v>35</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="B70">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>539025</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1915,14 +1953,20 @@
       <c r="A71">
         <v>35</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="B71">
+        <v>35</v>
+      </c>
+      <c r="C71">
+        <v>542356</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -1936,12 +1980,12 @@
         <v>36</v>
       </c>
       <c r="B72">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>548607</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E72">
@@ -1962,12 +2006,12 @@
         <v>36</v>
       </c>
       <c r="B73">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>551940</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E73">
@@ -1988,12 +2032,12 @@
         <v>37</v>
       </c>
       <c r="B74">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>562505</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E74">
@@ -2014,12 +2058,12 @@
         <v>37</v>
       </c>
       <c r="B75">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C75">
         <v>565839</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E75">
@@ -2040,12 +2084,12 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C76">
         <v>579322</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E76">
@@ -2066,12 +2110,12 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>582655</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E77">
@@ -2092,12 +2136,12 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C78">
         <v>591039</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E78">
@@ -2118,12 +2162,12 @@
         <v>39</v>
       </c>
       <c r="B79">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C79">
         <v>594372</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E79">
@@ -2144,12 +2188,12 @@
         <v>40</v>
       </c>
       <c r="B80">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C80">
         <v>606938</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E80">
@@ -2170,12 +2214,12 @@
         <v>40</v>
       </c>
       <c r="B81">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C81">
         <v>610272</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E81">
